--- a/north_spring/Computer Science Coursework.xlsx
+++ b/north_spring/Computer Science Coursework.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
   <si>
     <t>Course Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,16 +42,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/2009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Beijing Institute of Technology </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Introduction to Computer Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>09/2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fundamentals of Website Development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Interface Programming Basis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Structures and Algorithm Analysis</t>
+  </si>
+  <si>
+    <t>Digital Circuit &amp; Digital Logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C Language Programming</t>
+  </si>
+  <si>
+    <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>Data Structure &amp; Algorithm Design</t>
+  </si>
+  <si>
+    <t>Probability &amp; Mathematical Statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Art Design Basis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Software Practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice on Application System Development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Organization &amp; Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object Oriented Programming (Java)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL Server 2000 Programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm Analysis &amp; Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.Net-Oriented Web Application Programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Development Base on Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Project &amp; Process Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compilation Principle &amp; Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practical Software Engineering Practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed System Development &amp; Practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement Analysis &amp; Solution Design Based on .NET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">J2EEE Architecture &amp; Application </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Development Base on Artificial Intelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice on Project Development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animation Scripting &amp; Render</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Design Patterns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bachelor Degree Project &amp; Thesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction to Software Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly &amp; Microcomputer Interface Technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentals of Artificial Intelligence </t>
+  </si>
+  <si>
+    <t>Database Principle &amp; Design</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Software Requirement Engineering &amp; Modeling</t>
   </si>
 </sst>
 </file>
@@ -104,7 +258,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -117,7 +271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,23 +557,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="A1:XFD1048576"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,128 +590,588 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B4" s="1">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
         <v>90</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>80</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1">
+        <v>90</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1">
+        <v>83</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1">
+        <v>87</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1">
+        <v>86</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
